--- a/Arbeitsaufzeichnungen/Arbeitsaufzeichnung_Rei.xlsx
+++ b/Arbeitsaufzeichnungen/Arbeitsaufzeichnung_Rei.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\diplomarbeit2\Arbeitsaufzeichnungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
